--- a/medicine/Enfance/Relais_petite_enfance/Relais_petite_enfance.xlsx
+++ b/medicine/Enfance/Relais_petite_enfance/Relais_petite_enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Relais petite enfance (RPE), anciennement dénommés Relais assistantes maternelles (RAM), sont des dispositifs initiés, en France, par les caisses d’allocations familiales, et créés en partenariat avec les collectivités locales. Elles ont parfois un statut associatif, notamment en milieu rural ou un statut privé ou public.
 Les RPE organisent pour les assistantes maternelles et les gardes d'enfants à domicile des temps de rencontre et d’échanges de pratiques, dans le but d’améliorer la qualité de leur accueil et  de rompre l’isolement dû à la profession exercée essentiellement au domicile des professionnelles. 
@@ -516,7 +528,9 @@
           <t>Intérêt du dispositif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les RPE répondent aux besoins d’information des familles (employeurs d’assistantes maternelles), et d’animation et de professionnalisation pour les assistantes maternelles.
 Les services rendus au public accueilli dans les RPE sont généralement gratuits : aide à la compréhension des contrats de travail, information sur la convention collective du particulier employeur, animations diverses.
@@ -548,11 +562,13 @@
           <t>Cadre légal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs missions sont par ailleurs définies par des circulaires de la Caisse nationale d’allocations familiales.
 L'animateur d'un RPE peut être un éducateur de jeunes enfants, un conseiller en économie social familial.
-Les RPE ne sont pas réglementés (comme le sont les établissements et services d’accueil) mais la loi no 2005-706 du 27 juin 2005 leur a conféré une existence légale. L'ordonnance 2021-611 du 19 mai 2021 modifie la dénomination d'origine « Relais d'assistantes maternelles » (RAM) en « Relais petite enfance »[1].
+Les RPE ne sont pas réglementés (comme le sont les établissements et services d’accueil) mais la loi no 2005-706 du 27 juin 2005 leur a conféré une existence légale. L'ordonnance 2021-611 du 19 mai 2021 modifie la dénomination d'origine « Relais d'assistantes maternelles » (RAM) en « Relais petite enfance ».
 </t>
         </is>
       </c>
